--- a/data/542/BOKNA/old/Quarterly_Real_NSA.xlsx
+++ b/data/542/BOKNA/old/Quarterly_Real_NSA.xlsx
@@ -665,7 +665,7 @@
     <col min="248" max="248" width="12.0" customWidth="true"/>
     <col min="249" max="249" width="11.0" customWidth="true"/>
     <col min="250" max="250" width="11.0" customWidth="true"/>
-    <col min="251" max="251" width="4.0" customWidth="true"/>
+    <col min="251" max="251" width="11.0" customWidth="true"/>
     <col min="252" max="252" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2690,10 +2690,8 @@
       <c r="IP2" s="3" t="n">
         <v>7635.5</v>
       </c>
-      <c r="IQ2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ2" s="3" t="n">
+        <v>8254.3</v>
       </c>
       <c r="IR2" s="1" t="inlineStr">
         <is>
@@ -3460,10 +3458,8 @@
       <c r="IP3" s="3" t="n">
         <v>598.9</v>
       </c>
-      <c r="IQ3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ3" s="3" t="n">
+        <v>516.1</v>
       </c>
       <c r="IR3" s="1" t="inlineStr">
         <is>
@@ -4230,10 +4226,8 @@
       <c r="IP4" s="3" t="n">
         <v>127813.7</v>
       </c>
-      <c r="IQ4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ4" s="3" t="n">
+        <v>129815.2</v>
       </c>
       <c r="IR4" s="1" t="inlineStr">
         <is>
@@ -5000,10 +4994,8 @@
       <c r="IP5" s="3" t="n">
         <v>12252.1</v>
       </c>
-      <c r="IQ5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ5" s="3" t="n">
+        <v>11153.3</v>
       </c>
       <c r="IR5" s="1" t="inlineStr">
         <is>
@@ -5770,10 +5762,8 @@
       <c r="IP6" s="3" t="n">
         <v>23394.8</v>
       </c>
-      <c r="IQ6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ6" s="3" t="n">
+        <v>21271.3</v>
       </c>
       <c r="IR6" s="1" t="inlineStr">
         <is>
@@ -6540,10 +6530,8 @@
       <c r="IP7" s="3" t="n">
         <v>43475.9</v>
       </c>
-      <c r="IQ7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ7" s="3" t="n">
+        <v>42169.1</v>
       </c>
       <c r="IR7" s="1" t="inlineStr">
         <is>
@@ -7310,10 +7298,8 @@
       <c r="IP8" s="3" t="n">
         <v>14278.3</v>
       </c>
-      <c r="IQ8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ8" s="3" t="n">
+        <v>14487.9</v>
       </c>
       <c r="IR8" s="1" t="inlineStr">
         <is>
@@ -8080,10 +8066,8 @@
       <c r="IP9" s="3" t="n">
         <v>29373.2</v>
       </c>
-      <c r="IQ9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ9" s="3" t="n">
+        <v>29931.9</v>
       </c>
       <c r="IR9" s="1" t="inlineStr">
         <is>
@@ -8850,10 +8834,8 @@
       <c r="IP10" s="3" t="n">
         <v>35149.6</v>
       </c>
-      <c r="IQ10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ10" s="3" t="n">
+        <v>34800.6</v>
       </c>
       <c r="IR10" s="1" t="inlineStr">
         <is>
@@ -9620,10 +9602,8 @@
       <c r="IP11" s="3" t="n">
         <v>29383.3</v>
       </c>
-      <c r="IQ11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ11" s="3" t="n">
+        <v>27743.5</v>
       </c>
       <c r="IR11" s="1" t="inlineStr">
         <is>
@@ -10390,10 +10370,8 @@
       <c r="IP12" s="3" t="n">
         <v>20818.9</v>
       </c>
-      <c r="IQ12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ12" s="3" t="n">
+        <v>22831.9</v>
       </c>
       <c r="IR12" s="1" t="inlineStr">
         <is>
@@ -11160,10 +11138,8 @@
       <c r="IP13" s="3" t="n">
         <v>22914.4</v>
       </c>
-      <c r="IQ13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ13" s="3" t="n">
+        <v>22698.9</v>
       </c>
       <c r="IR13" s="1" t="inlineStr">
         <is>
@@ -11930,10 +11906,8 @@
       <c r="IP14" s="3" t="n">
         <v>8310.8</v>
       </c>
-      <c r="IQ14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ14" s="3" t="n">
+        <v>9823.8</v>
       </c>
       <c r="IR14" s="1" t="inlineStr">
         <is>
@@ -12700,10 +12674,8 @@
       <c r="IP15" s="3" t="n">
         <v>438146.4</v>
       </c>
-      <c r="IQ15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ15" s="3" t="n">
+        <v>436844.6</v>
       </c>
       <c r="IR15" s="1" t="inlineStr">
         <is>
@@ -13470,10 +13442,8 @@
       <c r="IP16" s="3" t="n">
         <v>38445.9</v>
       </c>
-      <c r="IQ16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ16" s="3" t="n">
+        <v>40684.4</v>
       </c>
       <c r="IR16" s="1" t="inlineStr">
         <is>
@@ -14240,10 +14210,8 @@
       <c r="IP17" s="3" t="n">
         <v>476547.4</v>
       </c>
-      <c r="IQ17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ17" s="3" t="n">
+        <v>477568.7</v>
       </c>
       <c r="IR17" s="1" t="inlineStr">
         <is>
@@ -15010,10 +14978,8 @@
       <c r="IP18" s="3" t="n">
         <v>-11517.8</v>
       </c>
-      <c r="IQ18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ18" s="3" t="n">
+        <v>-12381.5</v>
       </c>
       <c r="IR18" s="1" t="inlineStr">
         <is>
@@ -15780,10 +15746,8 @@
       <c r="IP19" s="3" t="n">
         <v>465029.6</v>
       </c>
-      <c r="IQ19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ19" s="3" t="n">
+        <v>465187.2</v>
       </c>
       <c r="IR19" s="1" t="inlineStr">
         <is>
@@ -16550,10 +16514,8 @@
       <c r="IP20" s="3" t="n">
         <v>6325.2</v>
       </c>
-      <c r="IQ20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ20" s="3" t="n">
+        <v>4918.3</v>
       </c>
       <c r="IR20" s="1" t="inlineStr">
         <is>
@@ -17320,10 +17282,8 @@
       <c r="IP21" s="3" t="n">
         <v>471381.3</v>
       </c>
-      <c r="IQ21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ21" s="3" t="n">
+        <v>470114.5</v>
       </c>
       <c r="IR21" s="1" t="inlineStr">
         <is>
@@ -18090,10 +18050,8 @@
       <c r="IP22" s="3" t="n">
         <v>301678.4</v>
       </c>
-      <c r="IQ22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ22" s="3" t="n">
+        <v>300431.2</v>
       </c>
       <c r="IR22" s="1" t="inlineStr">
         <is>
@@ -18860,10 +18818,8 @@
       <c r="IP23" s="3" t="n">
         <v>216275.0</v>
       </c>
-      <c r="IQ23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ23" s="3" t="n">
+        <v>220548.1</v>
       </c>
       <c r="IR23" s="1" t="inlineStr">
         <is>
@@ -19710,10 +19666,8 @@
       <c r="IP24" s="3" t="n">
         <v>208026.1</v>
       </c>
-      <c r="IQ24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ24" s="3" t="n">
+        <v>211689.8</v>
       </c>
       <c r="IR24" s="1" t="inlineStr">
         <is>
@@ -20560,10 +20514,8 @@
       <c r="IP25" s="3" t="n">
         <v>8249.3</v>
       </c>
-      <c r="IQ25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ25" s="3" t="n">
+        <v>8868.0</v>
       </c>
       <c r="IR25" s="1" t="inlineStr">
         <is>
@@ -21330,10 +21282,8 @@
       <c r="IP26" s="3" t="n">
         <v>85051.1</v>
       </c>
-      <c r="IQ26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ26" s="3" t="n">
+        <v>79704.2</v>
       </c>
       <c r="IR26" s="1" t="inlineStr">
         <is>
@@ -22100,10 +22050,8 @@
       <c r="IP27" s="3" t="n">
         <v>144392.9</v>
       </c>
-      <c r="IQ27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ27" s="3" t="n">
+        <v>144203.9</v>
       </c>
       <c r="IR27" s="1" t="inlineStr">
         <is>
@@ -22870,10 +22818,8 @@
       <c r="IP28" s="3" t="n">
         <v>149992.8</v>
       </c>
-      <c r="IQ28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ28" s="3" t="n">
+        <v>138674.6</v>
       </c>
       <c r="IR28" s="1" t="inlineStr">
         <is>
@@ -23640,10 +23586,8 @@
       <c r="IP29" s="3" t="n">
         <v>71560.2</v>
       </c>
-      <c r="IQ29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ29" s="3" t="n">
+        <v>64636.9</v>
       </c>
       <c r="IR29" s="1" t="inlineStr">
         <is>
@@ -24410,10 +24354,8 @@
       <c r="IP30" s="3" t="n">
         <v>47681.5</v>
       </c>
-      <c r="IQ30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ30" s="3" t="n">
+        <v>42361.0</v>
       </c>
       <c r="IR30" s="1" t="inlineStr">
         <is>
@@ -25180,10 +25122,8 @@
       <c r="IP31" s="3" t="n">
         <v>30885.8</v>
       </c>
-      <c r="IQ31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ31" s="3" t="n">
+        <v>31737.0</v>
       </c>
       <c r="IR31" s="1" t="inlineStr">
         <is>
@@ -25950,10 +25890,8 @@
       <c r="IP32" s="3" t="n">
         <v>-4422.8</v>
       </c>
-      <c r="IQ32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ32" s="3" t="n">
+        <v>6703.5</v>
       </c>
       <c r="IR32" s="1" t="inlineStr">
         <is>
@@ -26720,10 +26658,8 @@
       <c r="IP33" s="3" t="n">
         <v>203987.3</v>
       </c>
-      <c r="IQ33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ33" s="3" t="n">
+        <v>209303.0</v>
       </c>
       <c r="IR33" s="1" t="inlineStr">
         <is>
@@ -27490,10 +27426,8 @@
       <c r="IP34" s="3" t="n">
         <v>174010.3</v>
       </c>
-      <c r="IQ34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ34" s="3" t="n">
+        <v>176049.2</v>
       </c>
       <c r="IR34" s="1" t="inlineStr">
         <is>
@@ -28260,10 +28194,8 @@
       <c r="IP35" s="3" t="n">
         <v>391.3</v>
       </c>
-      <c r="IQ35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ35" s="3" t="n">
+        <v>76.2</v>
       </c>
       <c r="IR35" s="1" t="inlineStr">
         <is>
